--- a/capiq_data/in_process_data/IQ6477196.xlsx
+++ b/capiq_data/in_process_data/IQ6477196.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD167D5-7150-43D9-8904-E7BB42F39183}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C80792F-D2BB-447E-ABBD-475E96DA3D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"942f14c9-42b3-47f3-a485-df344a1d8fed"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"64f5fd1c-8350-4b9b-bb19-1c9bccbdc569"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$81</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$81</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$81</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$81</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$81</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$81</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$81</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$81</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$81</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$81</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$81</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$81</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$81</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$81</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$81</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$81</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$81</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$81</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$81</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$81</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$81</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$81</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$81</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$81</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$81</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$81</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,123 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +850,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>415</v>
+        <v>49.572000000000003</v>
       </c>
       <c r="D2">
-        <v>1438</v>
+        <v>396.45299999999997</v>
       </c>
       <c r="E2">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1438</v>
+        <v>396.45299999999997</v>
       </c>
       <c r="G2">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8837</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +889,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>588</v>
+        <v>11.1035</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="S2">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5216</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>3067</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>670</v>
+        <v>43.854500000000002</v>
       </c>
       <c r="W2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-17</v>
+        <v>-1.8474999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-39</v>
+        <v>-1.9195</v>
       </c>
       <c r="AA2">
-        <v>415</v>
+        <v>49.572000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>562</v>
+        <v>49.572000000000003</v>
       </c>
       <c r="D3">
-        <v>1501</v>
+        <v>399.00599999999997</v>
       </c>
       <c r="E3">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1501</v>
+        <v>399.00599999999997</v>
       </c>
       <c r="G3">
-        <v>6073</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8502</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +972,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2791</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-113</v>
+        <v>11.1035</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5202</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2954</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>355</v>
+        <v>43.854500000000002</v>
       </c>
       <c r="W3">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-665</v>
+        <v>-1.8474999999999999</v>
       </c>
       <c r="Y3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>160</v>
+        <v>-1.9195</v>
       </c>
       <c r="AA3">
-        <v>562</v>
+        <v>49.570999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>608</v>
+        <v>46.624000000000002</v>
       </c>
       <c r="D4">
-        <v>1667</v>
+        <v>403.42500000000001</v>
       </c>
       <c r="E4">
-        <v>1195</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1667</v>
+        <v>403.42500000000001</v>
       </c>
       <c r="G4">
-        <v>6011</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9025</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,81 +1055,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2964</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3544</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-190</v>
+        <v>23.879000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5481</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2764</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>538</v>
+        <v>108.36</v>
       </c>
       <c r="W4">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-418</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>158</v>
+        <v>-73.622</v>
       </c>
       <c r="AA4">
-        <v>608</v>
+        <v>46.625</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>717</v>
+        <v>-3.7069999999999999</v>
       </c>
       <c r="D5">
-        <v>1818</v>
+        <v>412.45</v>
       </c>
       <c r="E5">
-        <v>1277</v>
+        <v>180.51</v>
       </c>
       <c r="F5">
-        <v>1818</v>
+        <v>412.45</v>
       </c>
       <c r="G5">
-        <v>6753</v>
+        <v>1117.963</v>
       </c>
       <c r="H5">
-        <v>9674</v>
+        <v>1486.3050000000001</v>
       </c>
       <c r="I5">
-        <v>289</v>
+        <v>110.907</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>80.064999999999998</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.5310000000000006</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,75 +1138,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3105</v>
+        <v>649.971</v>
       </c>
       <c r="O5">
-        <v>3692</v>
+        <v>879.64400000000001</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>89.596000000000004</v>
       </c>
       <c r="Q5">
-        <v>989</v>
+        <v>-63.247</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5982</v>
+        <v>606.66099999999994</v>
       </c>
       <c r="U5">
-        <v>3753</v>
+        <v>176.143</v>
       </c>
       <c r="V5">
-        <v>1007</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="W5">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-88</v>
+        <v>-5.9980000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>194</v>
+        <v>-42.838000000000001</v>
       </c>
       <c r="AA5">
-        <v>717</v>
+        <v>-3.7069999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>53.595999999999997</v>
       </c>
       <c r="D6">
-        <v>1728</v>
+        <v>392.952</v>
       </c>
       <c r="E6">
-        <v>1405</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1728</v>
+        <v>392.952</v>
       </c>
       <c r="G6">
-        <v>7741</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>10693</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1098,87 +1215,87 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-9.5310000000000006</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4217</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4816</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>89.596000000000004</v>
       </c>
       <c r="Q6">
-        <v>-19</v>
+        <v>14.646000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="S6">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>5877</v>
+        <v>606.66099999999994</v>
       </c>
       <c r="U6">
-        <v>3734</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>784</v>
+        <v>34.893000000000001</v>
       </c>
       <c r="W6">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-44</v>
+        <v>-9.5310000000000006</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-637</v>
+        <v>8.1940000000000008</v>
       </c>
       <c r="AA6">
-        <v>19</v>
+        <v>53.595999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>682</v>
+        <v>36.389000000000003</v>
       </c>
       <c r="D7">
-        <v>1758</v>
+        <v>450.18900000000002</v>
       </c>
       <c r="E7">
-        <v>1461</v>
+        <v>193.33099999999999</v>
       </c>
       <c r="F7">
-        <v>1758</v>
+        <v>450.18900000000002</v>
       </c>
       <c r="G7">
-        <v>8113</v>
+        <v>1282.25</v>
       </c>
       <c r="H7">
-        <v>11131</v>
+        <v>2021.2639999999999</v>
       </c>
       <c r="I7">
-        <v>274</v>
+        <v>114.71299999999999</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>80.478999999999999</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,78 +1304,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4092</v>
+        <v>739.05</v>
       </c>
       <c r="O7">
-        <v>4752</v>
+        <v>1044.1949999999999</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>148.04900000000001</v>
       </c>
       <c r="Q7">
-        <v>-50</v>
+        <v>82.108000000000004</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>6379</v>
+        <v>977.06899999999996</v>
       </c>
       <c r="U7">
-        <v>3684</v>
+        <v>309.40199999999999</v>
       </c>
       <c r="V7">
-        <v>427</v>
+        <v>96.224000000000004</v>
       </c>
       <c r="W7">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-220</v>
+        <v>1E-3</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-251</v>
+        <v>-31.359000000000002</v>
       </c>
       <c r="AA7">
-        <v>682</v>
+        <v>36.389000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>700</v>
+        <v>77.930000000000007</v>
       </c>
       <c r="D8">
-        <v>1820</v>
+        <v>539.43499999999995</v>
       </c>
       <c r="E8">
-        <v>1634</v>
+        <v>200.65</v>
       </c>
       <c r="F8">
-        <v>1820</v>
+        <v>539.43499999999995</v>
       </c>
       <c r="G8">
-        <v>8283</v>
+        <v>1404.7850000000001</v>
       </c>
       <c r="H8">
-        <v>11240</v>
+        <v>2179.8739999999998</v>
       </c>
       <c r="I8">
-        <v>330</v>
+        <v>104.262</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>80.480999999999995</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1387,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4307</v>
+        <v>823.53499999999997</v>
       </c>
       <c r="O8">
-        <v>4964</v>
+        <v>1122.0250000000001</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>80.480999999999995</v>
       </c>
       <c r="Q8">
-        <v>-531</v>
+        <v>-2.9580000000000002</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6276</v>
+        <v>1057.8489999999999</v>
       </c>
       <c r="U8">
-        <v>3153</v>
+        <v>269.93900000000002</v>
       </c>
       <c r="V8">
-        <v>641</v>
+        <v>44.758000000000003</v>
       </c>
       <c r="W8">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-702</v>
+        <v>-25.036000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-332</v>
+        <v>4.2270000000000003</v>
       </c>
       <c r="AA8">
-        <v>700</v>
+        <v>77.930000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>772</v>
+        <v>-51.485999999999997</v>
       </c>
       <c r="D9">
-        <v>1918</v>
+        <v>509.23500000000001</v>
       </c>
       <c r="E9">
-        <v>1712</v>
+        <v>198.85499999999999</v>
       </c>
       <c r="F9">
-        <v>1918</v>
+        <v>509.23500000000001</v>
       </c>
       <c r="G9">
-        <v>9072</v>
+        <v>1455.6379999999999</v>
       </c>
       <c r="H9">
-        <v>12120</v>
+        <v>2260.875</v>
       </c>
       <c r="I9">
-        <v>319</v>
+        <v>172.24199999999999</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>80.106999999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1470,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4548</v>
+        <v>929.74400000000003</v>
       </c>
       <c r="O9">
-        <v>5196</v>
+        <v>1236.825</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>80.106999999999999</v>
       </c>
       <c r="Q9">
-        <v>-108</v>
+        <v>66.534999999999997</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T9">
-        <v>6924</v>
+        <v>1024.05</v>
       </c>
       <c r="U9">
-        <v>3045</v>
+        <v>336.47399999999999</v>
       </c>
       <c r="V9">
-        <v>1014</v>
+        <v>133.99700000000001</v>
       </c>
       <c r="W9">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-229</v>
+        <v>-0.32700000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-794</v>
+        <v>-21.922999999999998</v>
       </c>
       <c r="AA9">
-        <v>772</v>
+        <v>-51.485999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>605</v>
+        <v>-425.39100000000002</v>
       </c>
       <c r="D10">
-        <v>1895</v>
+        <v>512.21500000000003</v>
       </c>
       <c r="E10">
-        <v>2030</v>
+        <v>202.92500000000001</v>
       </c>
       <c r="F10">
-        <v>1895</v>
+        <v>512.21500000000003</v>
       </c>
       <c r="G10">
-        <v>9357</v>
+        <v>1342.8440000000001</v>
       </c>
       <c r="H10">
-        <v>12462</v>
+        <v>2548.011</v>
       </c>
       <c r="I10">
-        <v>357</v>
+        <v>129.06299999999999</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>229.577</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1553,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4906</v>
+        <v>934.34799999999996</v>
       </c>
       <c r="O10">
-        <v>5533</v>
+        <v>1944.1030000000001</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>229.577</v>
       </c>
       <c r="Q10">
-        <v>-993</v>
+        <v>-195.255</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="S10">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>6929</v>
+        <v>603.90800000000002</v>
       </c>
       <c r="U10">
-        <v>2052</v>
+        <v>141.21899999999999</v>
       </c>
       <c r="V10">
-        <v>866</v>
+        <v>-148.92099999999999</v>
       </c>
       <c r="W10">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-647</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-441</v>
+        <v>6.7460000000000004</v>
       </c>
       <c r="AA10">
-        <v>605</v>
+        <v>-425.39100000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>766</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="D11">
-        <v>1906</v>
+        <v>556.89300000000003</v>
       </c>
       <c r="E11">
-        <v>1596</v>
+        <v>210.28</v>
       </c>
       <c r="F11">
-        <v>1906</v>
+        <v>556.89300000000003</v>
       </c>
       <c r="G11">
-        <v>8783</v>
+        <v>1486.2439999999999</v>
       </c>
       <c r="H11">
-        <v>11809</v>
+        <v>2757.2379999999998</v>
       </c>
       <c r="I11">
-        <v>262</v>
+        <v>146.34399999999999</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>229.536</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1636,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4414</v>
+        <v>1037.6110000000001</v>
       </c>
       <c r="O11">
-        <v>5053</v>
+        <v>2101.7869999999998</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>229.536</v>
       </c>
       <c r="Q11">
-        <v>-68</v>
+        <v>163.792</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6756</v>
+        <v>655.45100000000002</v>
       </c>
       <c r="U11">
-        <v>1984</v>
+        <v>305.01100000000002</v>
       </c>
       <c r="V11">
-        <v>872</v>
+        <v>196.191</v>
       </c>
       <c r="W11">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-783</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-65</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="AA11">
-        <v>766</v>
+        <v>32.326999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>848</v>
+        <v>74.399000000000001</v>
       </c>
       <c r="D12">
-        <v>2096</v>
+        <v>594.16899999999998</v>
       </c>
       <c r="E12">
-        <v>1595</v>
+        <v>213.49700000000001</v>
       </c>
       <c r="F12">
-        <v>2096</v>
+        <v>594.16899999999998</v>
       </c>
       <c r="G12">
-        <v>8962</v>
+        <v>1570.143</v>
       </c>
       <c r="H12">
-        <v>12021</v>
+        <v>2854.998</v>
       </c>
       <c r="I12">
-        <v>259</v>
+        <v>143.93</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>229.54599999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1719,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4327</v>
+        <v>1036.345</v>
       </c>
       <c r="O12">
-        <v>4992</v>
+        <v>2118.444</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>229.54599999999999</v>
       </c>
       <c r="Q12">
-        <v>364</v>
+        <v>109.625</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7029</v>
+        <v>736.55399999999997</v>
       </c>
       <c r="U12">
-        <v>2348</v>
+        <v>414.63600000000002</v>
       </c>
       <c r="V12">
-        <v>742</v>
+        <v>143.096</v>
       </c>
       <c r="W12">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-638</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>289</v>
+        <v>-10.974</v>
       </c>
       <c r="AA12">
-        <v>848</v>
+        <v>74.399000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>879</v>
+        <v>-67.128</v>
       </c>
       <c r="D13">
-        <v>2218</v>
+        <v>567.57399999999996</v>
       </c>
       <c r="E13">
-        <v>2285</v>
+        <v>259.42899999999997</v>
       </c>
       <c r="F13">
-        <v>2218</v>
+        <v>567.57399999999996</v>
       </c>
       <c r="G13">
-        <v>10559</v>
+        <v>1609.85</v>
       </c>
       <c r="H13">
-        <v>13730</v>
+        <v>2900.9050000000002</v>
       </c>
       <c r="I13">
-        <v>280</v>
+        <v>202.60400000000001</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>229.57400000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1802,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5420</v>
+        <v>1188.8579999999999</v>
       </c>
       <c r="O13">
-        <v>6062</v>
+        <v>2197.5639999999999</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>229.57400000000001</v>
       </c>
       <c r="Q13">
-        <v>1065</v>
+        <v>-48.618000000000002</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T13">
-        <v>7668</v>
+        <v>703.34100000000001</v>
       </c>
       <c r="U13">
-        <v>3413</v>
+        <v>248.119</v>
       </c>
       <c r="V13">
-        <v>1322</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="W13">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-416</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>184</v>
+        <v>-12.401</v>
       </c>
       <c r="AA13">
-        <v>879</v>
+        <v>-67.128</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>623</v>
+        <v>73.567999999999998</v>
       </c>
       <c r="D14">
-        <v>2126</v>
+        <v>594.30999999999995</v>
       </c>
       <c r="E14">
-        <v>2304</v>
+        <v>230.36699999999999</v>
       </c>
       <c r="F14">
-        <v>2126</v>
+        <v>594.30999999999995</v>
       </c>
       <c r="G14">
-        <v>10950</v>
+        <v>1552.6990000000001</v>
       </c>
       <c r="H14">
-        <v>14242</v>
+        <v>2830.9659999999999</v>
       </c>
       <c r="I14">
-        <v>338</v>
+        <v>166.874</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>229.60300000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1885,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6032</v>
+        <v>1052.7739999999999</v>
       </c>
       <c r="O14">
-        <v>6747</v>
+        <v>2064.192</v>
       </c>
       <c r="P14">
-        <v>35</v>
+        <v>229.60300000000001</v>
       </c>
       <c r="Q14">
-        <v>186</v>
+        <v>44.851999999999997</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="S14">
-        <v>8200</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>7495</v>
+        <v>766.774</v>
       </c>
       <c r="U14">
-        <v>3599</v>
+        <v>345.12099999999998</v>
       </c>
       <c r="V14">
-        <v>1199</v>
+        <v>12.919</v>
       </c>
       <c r="W14">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-792</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-89</v>
+        <v>69.656000000000006</v>
       </c>
       <c r="AA14">
-        <v>623</v>
+        <v>73.567999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>870</v>
+        <v>65.706999999999994</v>
       </c>
       <c r="D15">
-        <v>2172</v>
+        <v>647.27499999999998</v>
       </c>
       <c r="E15">
-        <v>2460</v>
+        <v>253.303</v>
       </c>
       <c r="F15">
-        <v>2172</v>
+        <v>647.27499999999998</v>
       </c>
       <c r="G15">
-        <v>11342</v>
+        <v>1665.44</v>
       </c>
       <c r="H15">
-        <v>14802</v>
+        <v>2945.1529999999998</v>
       </c>
       <c r="I15">
-        <v>297</v>
+        <v>129.99600000000001</v>
       </c>
       <c r="J15">
-        <v>1494</v>
+        <v>229.51499999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5994</v>
+        <v>1100.787</v>
       </c>
       <c r="O15">
-        <v>8224</v>
+        <v>2119.605</v>
       </c>
       <c r="P15">
-        <v>1494</v>
+        <v>229.51499999999999</v>
       </c>
       <c r="Q15">
-        <v>420</v>
+        <v>21.904</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6578</v>
+        <v>825.548</v>
       </c>
       <c r="U15">
-        <v>4019</v>
+        <v>441.928</v>
       </c>
       <c r="V15">
-        <v>568</v>
+        <v>132.01</v>
       </c>
       <c r="W15">
-        <v>-131</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-279</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>147</v>
+        <v>-86.042000000000002</v>
       </c>
       <c r="AA15">
-        <v>870</v>
+        <v>65.706999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>931</v>
+        <v>97.515000000000001</v>
       </c>
       <c r="D16">
-        <v>2368</v>
+        <v>667.84100000000001</v>
       </c>
       <c r="E16">
-        <v>2468</v>
+        <v>284.94400000000002</v>
       </c>
       <c r="F16">
-        <v>2368</v>
+        <v>667.84100000000001</v>
       </c>
       <c r="G16">
-        <v>10577</v>
+        <v>1872.4290000000001</v>
       </c>
       <c r="H16">
-        <v>14375</v>
+        <v>3177.2</v>
       </c>
       <c r="I16">
-        <v>420</v>
+        <v>168.77699999999999</v>
       </c>
       <c r="J16">
-        <v>1494</v>
+        <v>229.50800000000001</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.6420000000000003</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,78 +2051,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5790</v>
+        <v>1197.787</v>
       </c>
       <c r="O16">
-        <v>8061</v>
+        <v>2246.444</v>
       </c>
       <c r="P16">
-        <v>1494</v>
+        <v>237.15</v>
       </c>
       <c r="Q16">
-        <v>-1141</v>
+        <v>-5.2729999999999997</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6314</v>
+        <v>930.75599999999997</v>
       </c>
       <c r="U16">
-        <v>2878</v>
+        <v>578.80200000000002</v>
       </c>
       <c r="V16">
-        <v>729</v>
+        <v>149.12700000000001</v>
       </c>
       <c r="W16">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-1306</v>
+        <v>7.6420000000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-307</v>
+        <v>-142.012</v>
       </c>
       <c r="AA16">
-        <v>931</v>
+        <v>97.515000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1015</v>
+        <v>1.27</v>
       </c>
       <c r="D17">
-        <v>2490</v>
+        <v>683.904</v>
       </c>
       <c r="E17">
-        <v>2239</v>
+        <v>293.29199999999997</v>
       </c>
       <c r="F17">
-        <v>2490</v>
+        <v>683.904</v>
       </c>
       <c r="G17">
-        <v>10956</v>
+        <v>1902.796</v>
       </c>
       <c r="H17">
-        <v>14659</v>
+        <v>3264.67</v>
       </c>
       <c r="I17">
-        <v>319</v>
+        <v>187.035</v>
       </c>
       <c r="J17">
-        <v>1494</v>
+        <v>229.56899999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2134,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5849</v>
+        <v>1301.3620000000001</v>
       </c>
       <c r="O17">
-        <v>8111</v>
+        <v>2285.098</v>
       </c>
       <c r="P17">
-        <v>1494</v>
+        <v>229.56899999999999</v>
       </c>
       <c r="Q17">
-        <v>1584</v>
+        <v>19.393999999999998</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T17">
-        <v>6548</v>
+        <v>979.572</v>
       </c>
       <c r="U17">
-        <v>4462</v>
+        <v>328.99599999999998</v>
       </c>
       <c r="V17">
-        <v>1385</v>
+        <v>49.738999999999997</v>
       </c>
       <c r="W17">
-        <v>-128</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-510</v>
+        <v>-7.6420000000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>949</v>
+        <v>-4.258</v>
       </c>
       <c r="AA17">
-        <v>1015</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>801</v>
+        <v>93.293999999999997</v>
       </c>
       <c r="D18">
-        <v>2411</v>
+        <v>658.23800000000006</v>
       </c>
       <c r="E18">
-        <v>2126</v>
+        <v>299.32</v>
       </c>
       <c r="F18">
-        <v>2411</v>
+        <v>658.23800000000006</v>
       </c>
       <c r="G18">
-        <v>10997</v>
+        <v>1919.8810000000001</v>
       </c>
       <c r="H18">
-        <v>15329</v>
+        <v>3247.049</v>
       </c>
       <c r="I18">
-        <v>419</v>
+        <v>199.15199999999999</v>
       </c>
       <c r="J18">
-        <v>1494</v>
+        <v>229.536</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2217,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>6222</v>
+        <v>1233.8389999999999</v>
       </c>
       <c r="O18">
-        <v>8505</v>
+        <v>2204.3020000000001</v>
       </c>
       <c r="P18">
-        <v>1535</v>
+        <v>229.536</v>
       </c>
       <c r="Q18">
-        <v>675</v>
+        <v>30.995999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="S18">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>6824</v>
+        <v>1042.7470000000001</v>
       </c>
       <c r="U18">
-        <v>5137</v>
+        <v>359.99200000000002</v>
       </c>
       <c r="V18">
-        <v>725</v>
+        <v>-14.206</v>
       </c>
       <c r="W18">
-        <v>-127</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-244</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>661</v>
+        <v>69.778000000000006</v>
       </c>
       <c r="AA18">
-        <v>801</v>
+        <v>93.293999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1020</v>
+        <v>120.248</v>
       </c>
       <c r="D19">
-        <v>2230</v>
+        <v>771.86699999999996</v>
       </c>
       <c r="E19">
-        <v>2084</v>
+        <v>324.589</v>
       </c>
       <c r="F19">
-        <v>2230</v>
+        <v>771.86699999999996</v>
       </c>
       <c r="G19">
-        <v>10348</v>
+        <v>2038.701</v>
       </c>
       <c r="H19">
-        <v>14633</v>
+        <v>3347.924</v>
       </c>
       <c r="I19">
-        <v>406</v>
+        <v>177.89099999999999</v>
       </c>
       <c r="J19">
-        <v>1495</v>
+        <v>229.476</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2300,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5937</v>
+        <v>1221.578</v>
       </c>
       <c r="O19">
-        <v>8299</v>
+        <v>2214.7759999999998</v>
       </c>
       <c r="P19">
-        <v>1495</v>
+        <v>229.476</v>
       </c>
       <c r="Q19">
-        <v>-930</v>
+        <v>160.089</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6334</v>
+        <v>1133.1479999999999</v>
       </c>
       <c r="U19">
-        <v>4207</v>
+        <v>520.08100000000002</v>
       </c>
       <c r="V19">
-        <v>911</v>
+        <v>211.48500000000001</v>
       </c>
       <c r="W19">
-        <v>-184</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-441</v>
+        <v>-15.566000000000001</v>
       </c>
       <c r="AA19">
-        <v>1020</v>
+        <v>120.248</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>921</v>
+        <v>106.08499999999999</v>
       </c>
       <c r="D20">
-        <v>2390</v>
+        <v>791.60500000000002</v>
       </c>
       <c r="E20">
-        <v>2369</v>
+        <v>368.59399999999999</v>
       </c>
       <c r="F20">
-        <v>2390</v>
+        <v>791.60500000000002</v>
       </c>
       <c r="G20">
-        <v>10217</v>
+        <v>2251.5729999999999</v>
       </c>
       <c r="H20">
-        <v>15272</v>
+        <v>3670.3620000000001</v>
       </c>
       <c r="I20">
-        <v>481</v>
+        <v>182.20699999999999</v>
       </c>
       <c r="J20">
-        <v>1495</v>
+        <v>229.46</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2383,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>6476</v>
+        <v>1430.7950000000001</v>
       </c>
       <c r="O20">
-        <v>8836</v>
+        <v>2430.317</v>
       </c>
       <c r="P20">
-        <v>1495</v>
+        <v>229.46</v>
       </c>
       <c r="Q20">
-        <v>-846</v>
+        <v>10.907</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6436</v>
+        <v>1240.0450000000001</v>
       </c>
       <c r="U20">
-        <v>3361</v>
+        <v>530.98800000000006</v>
       </c>
       <c r="V20">
-        <v>821</v>
+        <v>151.148</v>
       </c>
       <c r="W20">
-        <v>-183</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-1016</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-54</v>
+        <v>-124.32</v>
       </c>
       <c r="AA20">
-        <v>921</v>
+        <v>106.08499999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>977</v>
+        <v>-52.908000000000001</v>
       </c>
       <c r="D21">
-        <v>2530</v>
+        <v>715.91800000000001</v>
       </c>
       <c r="E21">
-        <v>1952</v>
+        <v>347.75400000000002</v>
       </c>
       <c r="F21">
-        <v>2530</v>
+        <v>715.91800000000001</v>
       </c>
       <c r="G21">
-        <v>9625</v>
+        <v>2227.8980000000001</v>
       </c>
       <c r="H21">
-        <v>14634</v>
+        <v>3700.5439999999999</v>
       </c>
       <c r="I21">
-        <v>381</v>
+        <v>185.02099999999999</v>
       </c>
       <c r="J21">
-        <v>1495</v>
+        <v>229.489</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2466,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5943</v>
+        <v>1556.703</v>
       </c>
       <c r="O21">
-        <v>8336</v>
+        <v>2526.7759999999998</v>
       </c>
       <c r="P21">
-        <v>1495</v>
+        <v>229.489</v>
       </c>
       <c r="Q21">
-        <v>516</v>
+        <v>14.285</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="T21">
-        <v>6298</v>
+        <v>1173.768</v>
       </c>
       <c r="U21">
-        <v>3877</v>
+        <v>545.27300000000002</v>
       </c>
       <c r="V21">
-        <v>1272</v>
+        <v>-75.578999999999994</v>
       </c>
       <c r="W21">
-        <v>-181</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>483</v>
+        <v>119.496</v>
       </c>
       <c r="AA21">
-        <v>977</v>
+        <v>-52.908000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>890</v>
+        <v>126.744</v>
       </c>
       <c r="D22">
-        <v>2517</v>
+        <v>738.45299999999997</v>
       </c>
       <c r="E22">
-        <v>2124</v>
+        <v>324.47300000000001</v>
       </c>
       <c r="F22">
-        <v>2517</v>
+        <v>738.45299999999997</v>
       </c>
       <c r="G22">
-        <v>10984</v>
+        <v>2246.069</v>
       </c>
       <c r="H22">
-        <v>16250</v>
+        <v>3710.9609999999998</v>
       </c>
       <c r="I22">
-        <v>472</v>
+        <v>173.27099999999999</v>
       </c>
       <c r="J22">
-        <v>3268</v>
+        <v>229.55099999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2549,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6269</v>
+        <v>1418.2349999999999</v>
       </c>
       <c r="O22">
-        <v>10188</v>
+        <v>2398.634</v>
       </c>
       <c r="P22">
-        <v>3268</v>
+        <v>229.55099999999999</v>
       </c>
       <c r="Q22">
-        <v>1870</v>
+        <v>-50.481000000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="S22">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>6062</v>
+        <v>1312.327</v>
       </c>
       <c r="U22">
-        <v>5747</v>
+        <v>494.79199999999997</v>
       </c>
       <c r="V22">
-        <v>1039</v>
+        <v>40.636000000000003</v>
       </c>
       <c r="W22">
-        <v>-179</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>758</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>222</v>
+        <v>-85.477999999999994</v>
       </c>
       <c r="AA22">
-        <v>890</v>
+        <v>126.744</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>959</v>
+        <v>-310.45999999999998</v>
       </c>
       <c r="D23">
-        <v>2446</v>
+        <v>846.48900000000003</v>
       </c>
       <c r="E23">
-        <v>2188</v>
+        <v>410.32100000000003</v>
       </c>
       <c r="F23">
-        <v>2446</v>
+        <v>846.48900000000003</v>
       </c>
       <c r="G23">
-        <v>10606</v>
+        <v>3161.768</v>
       </c>
       <c r="H23">
-        <v>15905</v>
+        <v>4641.9390000000003</v>
       </c>
       <c r="I23">
-        <v>409</v>
+        <v>202.816</v>
       </c>
       <c r="J23">
-        <v>3333</v>
+        <v>229.58</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2632,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6440</v>
+        <v>1563.423</v>
       </c>
       <c r="O23">
-        <v>10394</v>
+        <v>2520.3130000000001</v>
       </c>
       <c r="P23">
-        <v>3333</v>
+        <v>229.58</v>
       </c>
       <c r="Q23">
-        <v>-853</v>
+        <v>715.06399999999996</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5511</v>
+        <v>2121.6260000000002</v>
       </c>
       <c r="U23">
-        <v>4894</v>
+        <v>1209.856</v>
       </c>
       <c r="V23">
-        <v>1058</v>
+        <v>142.94499999999999</v>
       </c>
       <c r="W23">
-        <v>-212</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-1595</v>
+        <v>649.97299999999996</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-302</v>
+        <v>-64.56</v>
       </c>
       <c r="AA23">
-        <v>959</v>
+        <v>-310.45999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>983</v>
+        <v>193.00399999999999</v>
       </c>
       <c r="D24">
-        <v>2694</v>
+        <v>901.96900000000005</v>
       </c>
       <c r="E24">
-        <v>2192</v>
+        <v>444.94600000000003</v>
       </c>
       <c r="F24">
-        <v>2694</v>
+        <v>901.96900000000005</v>
       </c>
       <c r="G24">
-        <v>10998</v>
+        <v>3358.4459999999999</v>
       </c>
       <c r="H24">
-        <v>16282</v>
+        <v>4871.95</v>
       </c>
       <c r="I24">
-        <v>452</v>
+        <v>193.15299999999999</v>
       </c>
       <c r="J24">
-        <v>3306</v>
+        <v>229.58799999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,81 +2715,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>6462</v>
+        <v>1554.6869999999999</v>
       </c>
       <c r="O24">
-        <v>10413</v>
+        <v>2547.1419999999998</v>
       </c>
       <c r="P24">
-        <v>3306</v>
+        <v>229.58799999999999</v>
       </c>
       <c r="Q24">
-        <v>282</v>
+        <v>211.28299999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5869</v>
+        <v>2324.808</v>
       </c>
       <c r="U24">
-        <v>5176</v>
+        <v>1421.1389999999999</v>
       </c>
       <c r="V24">
-        <v>1061</v>
+        <v>263.202</v>
       </c>
       <c r="W24">
-        <v>-209</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-651</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-10</v>
+        <v>-25.666</v>
       </c>
       <c r="AA24">
-        <v>983</v>
+        <v>193.00399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1184</v>
+        <v>40.902000000000001</v>
       </c>
       <c r="D25">
-        <v>2880</v>
+        <v>839.16300000000001</v>
       </c>
       <c r="E25">
-        <v>2422</v>
+        <v>451.26100000000002</v>
       </c>
       <c r="F25">
-        <v>2880</v>
+        <v>839.16300000000001</v>
       </c>
       <c r="G25">
-        <v>11776</v>
+        <v>3577.2289999999998</v>
       </c>
       <c r="H25">
-        <v>17323</v>
+        <v>5082.47</v>
       </c>
       <c r="I25">
-        <v>437</v>
+        <v>278.65600000000001</v>
       </c>
       <c r="J25">
-        <v>3326</v>
+        <v>229.66800000000001</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.758</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,78 +2798,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>7121</v>
+        <v>1811.59</v>
       </c>
       <c r="O25">
-        <v>11074</v>
+        <v>2713.491</v>
       </c>
       <c r="P25">
-        <v>3326</v>
+        <v>231.42599999999999</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>-236.059</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="T25">
-        <v>6249</v>
+        <v>2368.9789999999998</v>
       </c>
       <c r="U25">
-        <v>5205</v>
+        <v>1185.08</v>
       </c>
       <c r="V25">
-        <v>1424</v>
+        <v>203.37799999999999</v>
       </c>
       <c r="W25">
-        <v>-209</v>
+        <v>-12.372999999999999</v>
       </c>
       <c r="X25">
-        <v>-773</v>
+        <v>-12.372999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-531</v>
+        <v>-405.68599999999998</v>
       </c>
       <c r="AA25">
-        <v>1184</v>
+        <v>40.902000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>933</v>
+        <v>214.90600000000001</v>
       </c>
       <c r="D26">
-        <v>2756</v>
+        <v>915.10299999999995</v>
       </c>
       <c r="E26">
-        <v>2480</v>
+        <v>450.37200000000001</v>
       </c>
       <c r="F26">
-        <v>2756</v>
+        <v>915.10299999999995</v>
       </c>
       <c r="G26">
-        <v>13228</v>
+        <v>3608.547</v>
       </c>
       <c r="H26">
-        <v>18675</v>
+        <v>5206.1530000000002</v>
       </c>
       <c r="I26">
-        <v>609</v>
+        <v>231.44300000000001</v>
       </c>
       <c r="J26">
-        <v>5180</v>
+        <v>229.685</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,81 +2881,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>7206</v>
+        <v>1611.7429999999999</v>
       </c>
       <c r="O26">
-        <v>12991</v>
+        <v>2600.2869999999998</v>
       </c>
       <c r="P26">
-        <v>5180</v>
+        <v>229.685</v>
       </c>
       <c r="Q26">
-        <v>1516</v>
+        <v>24.739000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="S26">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>5684</v>
+        <v>2605.866</v>
       </c>
       <c r="U26">
-        <v>6721</v>
+        <v>1209.819</v>
       </c>
       <c r="V26">
-        <v>992</v>
+        <v>70.974000000000004</v>
       </c>
       <c r="W26">
-        <v>-207</v>
+        <v>-12.157</v>
       </c>
       <c r="X26">
-        <v>675</v>
+        <v>-8.3960000000000008</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>60</v>
+        <v>-9.0809999999999995</v>
       </c>
       <c r="AA26">
-        <v>933</v>
+        <v>214.90600000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1081</v>
+        <v>252.285</v>
       </c>
       <c r="D27">
-        <v>2734</v>
+        <v>996.95899999999995</v>
       </c>
       <c r="E27">
-        <v>2625</v>
+        <v>480.93900000000002</v>
       </c>
       <c r="F27">
-        <v>2734</v>
+        <v>996.95899999999995</v>
       </c>
       <c r="G27">
-        <v>12885</v>
+        <v>3988.5340000000001</v>
       </c>
       <c r="H27">
-        <v>18570</v>
+        <v>5606.549</v>
       </c>
       <c r="I27">
-        <v>680</v>
+        <v>236.66200000000001</v>
       </c>
       <c r="J27">
-        <v>5216</v>
+        <v>149.64699999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>7095</v>
+        <v>1827.616</v>
       </c>
       <c r="O27">
-        <v>12932</v>
+        <v>2747.933</v>
       </c>
       <c r="P27">
-        <v>5216</v>
+        <v>229.64699999999999</v>
       </c>
       <c r="Q27">
-        <v>-598</v>
+        <v>310.50400000000002</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5638</v>
+        <v>2858.616</v>
       </c>
       <c r="U27">
-        <v>6006</v>
+        <v>1520.3230000000001</v>
       </c>
       <c r="V27">
-        <v>727</v>
+        <v>375.18700000000001</v>
       </c>
       <c r="W27">
-        <v>-238</v>
+        <v>-20.942</v>
       </c>
       <c r="X27">
-        <v>-1237</v>
+        <v>-16.885999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-22</v>
+        <v>-17.968</v>
       </c>
       <c r="AA27">
-        <v>1081</v>
+        <v>252.286</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1177</v>
+        <v>314.46199999999999</v>
       </c>
       <c r="D28">
-        <v>3053</v>
+        <v>1082.8499999999999</v>
       </c>
       <c r="E28">
-        <v>2975</v>
+        <v>536.40099999999995</v>
       </c>
       <c r="F28">
-        <v>3053</v>
+        <v>1082.8499999999999</v>
       </c>
       <c r="G28">
-        <v>12542</v>
+        <v>4481.33</v>
       </c>
       <c r="H28">
-        <v>19839</v>
+        <v>6134.98</v>
       </c>
       <c r="I28">
-        <v>654</v>
+        <v>246.273</v>
       </c>
       <c r="J28">
-        <v>5326</v>
+        <v>149.74700000000001</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3047,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>7583</v>
+        <v>1996.742</v>
       </c>
       <c r="O28">
-        <v>13891</v>
+        <v>2957.6419999999998</v>
       </c>
       <c r="P28">
-        <v>5326</v>
+        <v>229.74700000000001</v>
       </c>
       <c r="Q28">
-        <v>-924</v>
+        <v>167.1</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5948</v>
+        <v>3177.3380000000002</v>
       </c>
       <c r="U28">
-        <v>5177</v>
+        <v>1687.423</v>
       </c>
       <c r="V28">
-        <v>1325</v>
+        <v>271.50200000000001</v>
       </c>
       <c r="W28">
-        <v>-236</v>
+        <v>-20.706</v>
       </c>
       <c r="X28">
-        <v>-1215</v>
+        <v>-297.00599999999997</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-121</v>
+        <v>205.97800000000001</v>
       </c>
       <c r="AA28">
-        <v>1177</v>
+        <v>314.46100000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1430</v>
+        <v>304.233</v>
       </c>
       <c r="D29">
-        <v>3398</v>
+        <v>1072.6869999999999</v>
       </c>
       <c r="E29">
-        <v>3053</v>
+        <v>1245.191</v>
       </c>
       <c r="F29">
-        <v>3398</v>
+        <v>1072.6869999999999</v>
       </c>
       <c r="G29">
-        <v>13231</v>
+        <v>4591.741</v>
       </c>
       <c r="H29">
-        <v>20914</v>
+        <v>6260.0410000000002</v>
       </c>
       <c r="I29">
-        <v>722</v>
+        <v>252.39099999999999</v>
       </c>
       <c r="J29">
-        <v>5393</v>
+        <v>149.82400000000001</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3130,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>7984</v>
+        <v>2363.3420000000001</v>
       </c>
       <c r="O29">
-        <v>14376</v>
+        <v>3228.114</v>
       </c>
       <c r="P29">
-        <v>5393</v>
+        <v>229.82400000000001</v>
       </c>
       <c r="Q29">
-        <v>440</v>
+        <v>-28.128</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="T29">
-        <v>6538</v>
+        <v>3031.9270000000001</v>
       </c>
       <c r="U29">
-        <v>5559</v>
+        <v>1659.2950000000001</v>
       </c>
       <c r="V29">
-        <v>1789</v>
+        <v>52.198</v>
       </c>
       <c r="W29">
-        <v>-235</v>
+        <v>-20.196999999999999</v>
       </c>
       <c r="X29">
-        <v>-1042</v>
+        <v>-335.21899999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-45</v>
+        <v>284.72500000000002</v>
       </c>
       <c r="AA29">
-        <v>1430</v>
+        <v>304.233</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>227</v>
+        <v>446.87799999999999</v>
       </c>
       <c r="D30">
-        <v>3312</v>
+        <v>1182.0840000000001</v>
       </c>
       <c r="E30">
-        <v>3338</v>
+        <v>1299.097</v>
       </c>
       <c r="F30">
-        <v>3312</v>
+        <v>1182.0840000000001</v>
       </c>
       <c r="G30">
-        <v>13797</v>
+        <v>4424.4290000000001</v>
       </c>
       <c r="H30">
-        <v>21329</v>
+        <v>6425.607</v>
       </c>
       <c r="I30">
-        <v>933</v>
+        <v>266.44799999999998</v>
       </c>
       <c r="J30">
-        <v>5424</v>
+        <v>149.97399999999999</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,78 +3213,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>8793</v>
+        <v>2365.2330000000002</v>
       </c>
       <c r="O30">
-        <v>15761</v>
+        <v>3263.0479999999998</v>
       </c>
       <c r="P30">
-        <v>5424</v>
+        <v>229.97399999999999</v>
       </c>
       <c r="Q30">
-        <v>401</v>
+        <v>213.255</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="S30">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>5568</v>
+        <v>3162.5590000000002</v>
       </c>
       <c r="U30">
-        <v>5933</v>
+        <v>1872.55</v>
       </c>
       <c r="V30">
-        <v>1823</v>
+        <v>223.91200000000001</v>
       </c>
       <c r="W30">
-        <v>-233</v>
+        <v>-20.038</v>
       </c>
       <c r="X30">
-        <v>-1270</v>
+        <v>-271.81799999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>6</v>
+        <v>253.24799999999999</v>
       </c>
       <c r="AA30">
-        <v>227</v>
+        <v>446.87799999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1492</v>
+        <v>-746.65300000000002</v>
       </c>
       <c r="D31">
-        <v>3580</v>
+        <v>1246.5039999999999</v>
       </c>
       <c r="E31">
-        <v>3644</v>
+        <v>1334.2329999999999</v>
       </c>
       <c r="F31">
-        <v>3580</v>
+        <v>1246.5039999999999</v>
       </c>
       <c r="G31">
-        <v>14707</v>
+        <v>4399.6369999999997</v>
       </c>
       <c r="H31">
-        <v>22944</v>
+        <v>6860.1750000000002</v>
       </c>
       <c r="I31">
-        <v>370</v>
+        <v>260.702</v>
       </c>
       <c r="J31">
-        <v>6469</v>
+        <v>170.637</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>8948</v>
+        <v>2800.5790000000002</v>
       </c>
       <c r="O31">
-        <v>17142</v>
+        <v>4807.4679999999998</v>
       </c>
       <c r="P31">
-        <v>6469</v>
+        <v>170.637</v>
       </c>
       <c r="Q31">
-        <v>832</v>
+        <v>-103.339</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5802</v>
+        <v>2052.7069999999999</v>
       </c>
       <c r="U31">
-        <v>6890</v>
+        <v>1769.211</v>
       </c>
       <c r="V31">
-        <v>1035</v>
+        <v>318.887</v>
       </c>
       <c r="W31">
-        <v>-263</v>
+        <v>-19.84</v>
       </c>
       <c r="X31">
-        <v>-665</v>
+        <v>-449.04300000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>505</v>
+        <v>61.628999999999998</v>
       </c>
       <c r="AA31">
-        <v>1492</v>
+        <v>-746.65300000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1569</v>
+        <v>-193.58199999999999</v>
       </c>
       <c r="D32">
-        <v>3665</v>
+        <v>1338.1780000000001</v>
       </c>
       <c r="E32">
-        <v>3657</v>
+        <v>1235.9449999999999</v>
       </c>
       <c r="F32">
-        <v>3665</v>
+        <v>1338.1780000000001</v>
       </c>
       <c r="G32">
-        <v>14305</v>
+        <v>5070.643</v>
       </c>
       <c r="H32">
-        <v>22471</v>
+        <v>7272.9750000000004</v>
       </c>
       <c r="I32">
-        <v>345</v>
+        <v>224.255</v>
       </c>
       <c r="J32">
-        <v>5858</v>
+        <v>19.585999999999999</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>149.38</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3379,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>9455</v>
+        <v>3800.3829999999998</v>
       </c>
       <c r="O32">
-        <v>17121</v>
+        <v>5503.2240000000002</v>
       </c>
       <c r="P32">
-        <v>5858</v>
+        <v>168.96600000000001</v>
       </c>
       <c r="Q32">
-        <v>-656</v>
+        <v>302.24599999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5350</v>
+        <v>1769.751</v>
       </c>
       <c r="U32">
-        <v>6210</v>
+        <v>2071.4569999999999</v>
       </c>
       <c r="V32">
-        <v>1489</v>
+        <v>387.78500000000003</v>
       </c>
       <c r="W32">
-        <v>-262</v>
+        <v>-19.698</v>
       </c>
       <c r="X32">
-        <v>-1751</v>
+        <v>-9.9469999999999992</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-244</v>
+        <v>41.503999999999998</v>
       </c>
       <c r="AA32">
-        <v>1569</v>
+        <v>-193.58199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1899</v>
+        <v>239.44200000000001</v>
       </c>
       <c r="D33">
-        <v>3898</v>
+        <v>1224.8340000000001</v>
       </c>
       <c r="E33">
-        <v>3612</v>
+        <v>1152.673</v>
       </c>
       <c r="F33">
-        <v>3898</v>
+        <v>1224.8340000000001</v>
       </c>
       <c r="G33">
-        <v>15064</v>
+        <v>4311.5069999999996</v>
       </c>
       <c r="H33">
-        <v>23340</v>
+        <v>6475.8490000000002</v>
       </c>
       <c r="I33">
-        <v>382</v>
+        <v>253.27600000000001</v>
       </c>
       <c r="J33">
-        <v>5858</v>
+        <v>19.387</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>149.38</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,78 +3462,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>9709</v>
+        <v>2990.451</v>
       </c>
       <c r="O33">
-        <v>17473</v>
+        <v>4543.8739999999998</v>
       </c>
       <c r="P33">
-        <v>6358</v>
+        <v>168.767</v>
       </c>
       <c r="Q33">
-        <v>710</v>
+        <v>-566.29700000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="T33">
-        <v>5867</v>
+        <v>1931.9749999999999</v>
       </c>
       <c r="U33">
-        <v>6871</v>
+        <v>1505.16</v>
       </c>
       <c r="V33">
-        <v>2367</v>
+        <v>-517.35599999999999</v>
       </c>
       <c r="W33">
-        <v>-260</v>
+        <v>-19.683</v>
       </c>
       <c r="X33">
-        <v>-1417</v>
+        <v>-20.57</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-102</v>
+        <v>100.848</v>
       </c>
       <c r="AA33">
-        <v>1899</v>
+        <v>239.44200000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>899</v>
+        <v>367</v>
       </c>
       <c r="D34">
-        <v>3807</v>
+        <v>1156</v>
       </c>
       <c r="E34">
-        <v>4728</v>
+        <v>1088.278</v>
       </c>
       <c r="F34">
-        <v>3807</v>
+        <v>1156</v>
       </c>
       <c r="G34">
-        <v>16171</v>
+        <v>4106.8999999999996</v>
       </c>
       <c r="H34">
-        <v>24860</v>
+        <v>6415.3119999999999</v>
       </c>
       <c r="I34">
-        <v>537</v>
+        <v>262.62200000000001</v>
       </c>
       <c r="J34">
-        <v>5834</v>
+        <v>18.407</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3542,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-149</v>
       </c>
       <c r="N34">
-        <v>11593</v>
+        <v>2751.3040000000001</v>
       </c>
       <c r="O34">
-        <v>19371</v>
+        <v>4185.9830000000002</v>
       </c>
       <c r="P34">
-        <v>6334</v>
+        <v>18.407</v>
       </c>
       <c r="Q34">
-        <v>-141</v>
+        <v>173</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="S34">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5489</v>
+        <v>2229.3290000000002</v>
       </c>
       <c r="U34">
-        <v>6682</v>
+        <v>1678.192</v>
       </c>
       <c r="V34">
-        <v>1332</v>
+        <v>416</v>
       </c>
       <c r="W34">
-        <v>-259</v>
+        <v>-20</v>
       </c>
       <c r="X34">
-        <v>-1133</v>
+        <v>-165</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-147</v>
+        <v>-20</v>
       </c>
       <c r="AA34">
-        <v>899</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1862</v>
+        <v>349</v>
       </c>
       <c r="D35">
-        <v>3889</v>
+        <v>1280</v>
       </c>
       <c r="E35">
-        <v>4003</v>
+        <v>1170.827</v>
       </c>
       <c r="F35">
-        <v>3889</v>
+        <v>1280</v>
       </c>
       <c r="G35">
-        <v>14396</v>
+        <v>4690.2020000000002</v>
       </c>
       <c r="H35">
-        <v>23520</v>
+        <v>6983.933</v>
       </c>
       <c r="I35">
-        <v>508</v>
+        <v>259.48399999999998</v>
       </c>
       <c r="J35">
-        <v>5799</v>
+        <v>20.564</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3628,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>10246</v>
+        <v>2981.6120000000001</v>
       </c>
       <c r="O35">
-        <v>18257</v>
+        <v>4309.8919999999998</v>
       </c>
       <c r="P35">
-        <v>6705</v>
+        <v>20.564</v>
       </c>
       <c r="Q35">
-        <v>-752</v>
+        <v>370</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5263</v>
+        <v>2674.0410000000002</v>
       </c>
       <c r="U35">
-        <v>5857</v>
+        <v>2048.194</v>
       </c>
       <c r="V35">
-        <v>1312</v>
+        <v>362</v>
       </c>
       <c r="W35">
-        <v>-340</v>
+        <v>-19</v>
       </c>
       <c r="X35">
-        <v>-2223</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>366</v>
+        <v>-3</v>
       </c>
       <c r="AA35">
-        <v>1862</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>2048</v>
+        <v>453</v>
       </c>
       <c r="D36">
-        <v>4113</v>
+        <v>1364</v>
       </c>
       <c r="E36">
-        <v>4156</v>
+        <v>930.54700000000003</v>
       </c>
       <c r="F36">
-        <v>4113</v>
+        <v>1364</v>
       </c>
       <c r="G36">
-        <v>14165</v>
+        <v>4752.6670000000004</v>
       </c>
       <c r="H36">
-        <v>24731</v>
+        <v>6939.348</v>
       </c>
       <c r="I36">
-        <v>432</v>
+        <v>277.71499999999997</v>
       </c>
       <c r="J36">
-        <v>7806</v>
+        <v>21.69</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3711,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>9497</v>
+        <v>2791.3319999999999</v>
       </c>
       <c r="O36">
-        <v>19622</v>
+        <v>3714.1120000000001</v>
       </c>
       <c r="P36">
-        <v>8224</v>
+        <v>21.69</v>
       </c>
       <c r="Q36">
-        <v>-140</v>
+        <v>268</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5109</v>
+        <v>3225.2359999999999</v>
       </c>
       <c r="U36">
-        <v>5691</v>
+        <v>2316.3910000000001</v>
       </c>
       <c r="V36">
-        <v>1536</v>
+        <v>316</v>
       </c>
       <c r="W36">
-        <v>-337</v>
+        <v>-20</v>
       </c>
       <c r="X36">
-        <v>-937</v>
+        <v>-10</v>
       </c>
       <c r="Y36">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>129</v>
+        <v>-14</v>
       </c>
       <c r="AA36">
-        <v>2048</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>2108</v>
+        <v>294</v>
       </c>
       <c r="D37">
-        <v>4467</v>
+        <v>1299</v>
       </c>
       <c r="E37">
-        <v>5223</v>
+        <v>994</v>
       </c>
       <c r="F37">
-        <v>4467</v>
+        <v>1299</v>
       </c>
       <c r="G37">
-        <v>14847</v>
+        <v>5003</v>
       </c>
       <c r="H37">
-        <v>25981</v>
+        <v>7470</v>
       </c>
       <c r="I37">
-        <v>505</v>
+        <v>290</v>
       </c>
       <c r="J37">
-        <v>7735</v>
+        <v>22</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3794,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>10714</v>
+        <v>3167</v>
       </c>
       <c r="O37">
-        <v>20932</v>
+        <v>3958</v>
       </c>
       <c r="P37">
-        <v>8219</v>
+        <v>22</v>
       </c>
       <c r="Q37">
-        <v>-473</v>
+        <v>-261</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="T37">
-        <v>5049</v>
+        <v>3512</v>
       </c>
       <c r="U37">
-        <v>5101</v>
+        <v>2055</v>
       </c>
       <c r="V37">
-        <v>2355</v>
+        <v>284</v>
       </c>
       <c r="W37">
-        <v>-335</v>
+        <v>-20</v>
       </c>
       <c r="X37">
-        <v>-2125</v>
+        <v>-10</v>
       </c>
       <c r="Y37">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>40</v>
+        <v>-480</v>
       </c>
       <c r="AA37">
-        <v>2108</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>2100</v>
+        <v>455</v>
       </c>
       <c r="D38">
-        <v>4414</v>
+        <v>1308</v>
       </c>
       <c r="E38">
-        <v>5509</v>
+        <v>915</v>
       </c>
       <c r="F38">
-        <v>4414</v>
+        <v>1308</v>
       </c>
       <c r="G38">
-        <v>16902</v>
+        <v>5106</v>
       </c>
       <c r="H38">
-        <v>29236</v>
+        <v>7286</v>
       </c>
       <c r="I38">
-        <v>489</v>
+        <v>251</v>
       </c>
       <c r="J38">
-        <v>8527</v>
+        <v>21</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3877,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>11904</v>
+        <v>2822</v>
       </c>
       <c r="O38">
-        <v>23245</v>
+        <v>3454</v>
       </c>
       <c r="P38">
-        <v>9289</v>
+        <v>21</v>
       </c>
       <c r="Q38">
-        <v>1997</v>
+        <v>64</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="S38">
-        <v>18600</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>5991</v>
+        <v>3832</v>
       </c>
       <c r="U38">
-        <v>6988</v>
+        <v>2119</v>
       </c>
       <c r="V38">
-        <v>2980</v>
+        <v>95</v>
       </c>
       <c r="W38">
-        <v>-333</v>
+        <v>-20</v>
       </c>
       <c r="X38">
-        <v>-582</v>
+        <v>77</v>
       </c>
       <c r="Y38">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>-3</v>
       </c>
       <c r="AA38">
-        <v>2100</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1693</v>
+        <v>458</v>
       </c>
       <c r="D39">
-        <v>4009</v>
+        <v>1365</v>
       </c>
       <c r="E39">
-        <v>3605</v>
+        <v>928</v>
       </c>
       <c r="F39">
-        <v>4009</v>
+        <v>1365</v>
       </c>
       <c r="G39">
-        <v>18123</v>
+        <v>5543</v>
       </c>
       <c r="H39">
-        <v>30648</v>
+        <v>7432</v>
       </c>
       <c r="I39">
-        <v>371</v>
+        <v>244</v>
       </c>
       <c r="J39">
-        <v>12466</v>
+        <v>19</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3960,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>9712</v>
+        <v>2818</v>
       </c>
       <c r="O39">
-        <v>25150</v>
+        <v>3307</v>
       </c>
       <c r="P39">
-        <v>12466</v>
+        <v>19</v>
       </c>
       <c r="Q39">
-        <v>3364</v>
+        <v>204</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5498</v>
+        <v>4125</v>
       </c>
       <c r="U39">
-        <v>10207</v>
+        <v>2323</v>
       </c>
       <c r="V39">
-        <v>1859</v>
+        <v>343</v>
       </c>
       <c r="W39">
-        <v>-403</v>
+        <v>-19</v>
       </c>
       <c r="X39">
-        <v>2100</v>
+        <v>-18</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AA39">
-        <v>1693</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>1420</v>
+        <v>518</v>
       </c>
       <c r="D40">
-        <v>3335</v>
+        <v>1428</v>
       </c>
       <c r="E40">
-        <v>3929</v>
+        <v>980</v>
       </c>
       <c r="F40">
-        <v>3335</v>
+        <v>1428</v>
       </c>
       <c r="G40">
-        <v>19381</v>
+        <v>6233</v>
       </c>
       <c r="H40">
-        <v>32127</v>
+        <v>8166</v>
       </c>
       <c r="I40">
-        <v>369</v>
+        <v>243</v>
       </c>
       <c r="J40">
-        <v>12498</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4043,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>9923</v>
+        <v>2832</v>
       </c>
       <c r="O40">
-        <v>25579</v>
+        <v>3315</v>
       </c>
       <c r="P40">
-        <v>12498</v>
+        <v>21</v>
       </c>
       <c r="Q40">
-        <v>969</v>
+        <v>156</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>6548</v>
+        <v>4851</v>
       </c>
       <c r="U40">
-        <v>11137</v>
+        <v>2479</v>
       </c>
       <c r="V40">
-        <v>1458</v>
+        <v>589</v>
       </c>
       <c r="W40">
-        <v>-401</v>
+        <v>-20</v>
       </c>
       <c r="X40">
-        <v>-409</v>
+        <v>-23</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="AA40">
-        <v>1420</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40543</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1513</v>
+        <v>415</v>
       </c>
       <c r="D41">
-        <v>3837</v>
+        <v>1438</v>
       </c>
       <c r="E41">
-        <v>3732</v>
+        <v>1146</v>
       </c>
       <c r="F41">
-        <v>3837</v>
+        <v>1438</v>
       </c>
       <c r="G41">
-        <v>18469</v>
+        <v>6454</v>
       </c>
       <c r="H41">
-        <v>31594</v>
+        <v>8837</v>
       </c>
       <c r="I41">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="J41">
-        <v>12574</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4126,3365 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>9958</v>
+        <v>3143</v>
       </c>
       <c r="O41">
-        <v>25713</v>
+        <v>3621</v>
       </c>
       <c r="P41">
-        <v>12574</v>
+        <v>20</v>
       </c>
       <c r="Q41">
-        <v>-898</v>
+        <v>588</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40543</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="T41">
-        <v>5881</v>
+        <v>5216</v>
       </c>
       <c r="U41">
-        <v>10225</v>
+        <v>3067</v>
       </c>
       <c r="V41">
-        <v>1654</v>
+        <v>670</v>
       </c>
       <c r="W41">
-        <v>-402</v>
+        <v>-20</v>
       </c>
       <c r="X41">
-        <v>-2468</v>
+        <v>-17</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="AA41">
-        <v>1513</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40633</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>562</v>
+      </c>
+      <c r="D42">
+        <v>1501</v>
+      </c>
+      <c r="E42">
+        <v>1034</v>
+      </c>
+      <c r="F42">
+        <v>1501</v>
+      </c>
+      <c r="G42">
+        <v>6073</v>
+      </c>
+      <c r="H42">
+        <v>8502</v>
+      </c>
+      <c r="I42">
+        <v>283</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2791</v>
+      </c>
+      <c r="O42">
+        <v>3300</v>
+      </c>
+      <c r="P42">
+        <v>65</v>
+      </c>
+      <c r="Q42">
+        <v>-113</v>
+      </c>
+      <c r="R42">
+        <v>40633</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>5202</v>
+      </c>
+      <c r="U42">
+        <v>2954</v>
+      </c>
+      <c r="V42">
+        <v>355</v>
+      </c>
+      <c r="W42">
+        <v>-20</v>
+      </c>
+      <c r="X42">
+        <v>-665</v>
+      </c>
+      <c r="Y42">
+        <v>44</v>
+      </c>
+      <c r="Z42">
+        <v>160</v>
+      </c>
+      <c r="AA42">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>608</v>
+      </c>
+      <c r="D43">
+        <v>1667</v>
+      </c>
+      <c r="E43">
+        <v>1195</v>
+      </c>
+      <c r="F43">
+        <v>1667</v>
+      </c>
+      <c r="G43">
+        <v>6011</v>
+      </c>
+      <c r="H43">
+        <v>9025</v>
+      </c>
+      <c r="I43">
+        <v>336</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2964</v>
+      </c>
+      <c r="O43">
+        <v>3544</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-190</v>
+      </c>
+      <c r="R43">
+        <v>40724</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5481</v>
+      </c>
+      <c r="U43">
+        <v>2764</v>
+      </c>
+      <c r="V43">
+        <v>538</v>
+      </c>
+      <c r="W43">
+        <v>-19</v>
+      </c>
+      <c r="X43">
+        <v>-418</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>158</v>
+      </c>
+      <c r="AA43">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>717</v>
+      </c>
+      <c r="D44">
+        <v>1818</v>
+      </c>
+      <c r="E44">
+        <v>1277</v>
+      </c>
+      <c r="F44">
+        <v>1818</v>
+      </c>
+      <c r="G44">
+        <v>6753</v>
+      </c>
+      <c r="H44">
+        <v>9674</v>
+      </c>
+      <c r="I44">
+        <v>289</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3105</v>
+      </c>
+      <c r="O44">
+        <v>3692</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>989</v>
+      </c>
+      <c r="R44">
+        <v>40816</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5982</v>
+      </c>
+      <c r="U44">
+        <v>3753</v>
+      </c>
+      <c r="V44">
+        <v>1007</v>
+      </c>
+      <c r="W44">
+        <v>-19</v>
+      </c>
+      <c r="X44">
+        <v>-88</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>194</v>
+      </c>
+      <c r="AA44">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>1728</v>
+      </c>
+      <c r="E45">
+        <v>1405</v>
+      </c>
+      <c r="F45">
+        <v>1728</v>
+      </c>
+      <c r="G45">
+        <v>7741</v>
+      </c>
+      <c r="H45">
+        <v>10693</v>
+      </c>
+      <c r="I45">
+        <v>360</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4217</v>
+      </c>
+      <c r="O45">
+        <v>4816</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-19</v>
+      </c>
+      <c r="R45">
+        <v>40908</v>
+      </c>
+      <c r="S45">
+        <v>6700</v>
+      </c>
+      <c r="T45">
+        <v>5877</v>
+      </c>
+      <c r="U45">
+        <v>3734</v>
+      </c>
+      <c r="V45">
+        <v>784</v>
+      </c>
+      <c r="W45">
+        <v>-19</v>
+      </c>
+      <c r="X45">
+        <v>-44</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-637</v>
+      </c>
+      <c r="AA45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>682</v>
+      </c>
+      <c r="D46">
+        <v>1758</v>
+      </c>
+      <c r="E46">
+        <v>1461</v>
+      </c>
+      <c r="F46">
+        <v>1758</v>
+      </c>
+      <c r="G46">
+        <v>8113</v>
+      </c>
+      <c r="H46">
+        <v>11131</v>
+      </c>
+      <c r="I46">
+        <v>274</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4092</v>
+      </c>
+      <c r="O46">
+        <v>4752</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>-50</v>
+      </c>
+      <c r="R46">
+        <v>40999</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>6379</v>
+      </c>
+      <c r="U46">
+        <v>3684</v>
+      </c>
+      <c r="V46">
+        <v>427</v>
+      </c>
+      <c r="W46">
+        <v>-19</v>
+      </c>
+      <c r="X46">
+        <v>-220</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-251</v>
+      </c>
+      <c r="AA46">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>700</v>
+      </c>
+      <c r="D47">
+        <v>1820</v>
+      </c>
+      <c r="E47">
+        <v>1634</v>
+      </c>
+      <c r="F47">
+        <v>1820</v>
+      </c>
+      <c r="G47">
+        <v>8283</v>
+      </c>
+      <c r="H47">
+        <v>11240</v>
+      </c>
+      <c r="I47">
+        <v>330</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>4307</v>
+      </c>
+      <c r="O47">
+        <v>4964</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-531</v>
+      </c>
+      <c r="R47">
+        <v>41090</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>6276</v>
+      </c>
+      <c r="U47">
+        <v>3153</v>
+      </c>
+      <c r="V47">
+        <v>641</v>
+      </c>
+      <c r="W47">
+        <v>-38</v>
+      </c>
+      <c r="X47">
+        <v>-702</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-332</v>
+      </c>
+      <c r="AA47">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>772</v>
+      </c>
+      <c r="D48">
+        <v>1918</v>
+      </c>
+      <c r="E48">
+        <v>1712</v>
+      </c>
+      <c r="F48">
+        <v>1918</v>
+      </c>
+      <c r="G48">
+        <v>9072</v>
+      </c>
+      <c r="H48">
+        <v>12120</v>
+      </c>
+      <c r="I48">
+        <v>319</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4548</v>
+      </c>
+      <c r="O48">
+        <v>5196</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-108</v>
+      </c>
+      <c r="R48">
+        <v>41182</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>6924</v>
+      </c>
+      <c r="U48">
+        <v>3045</v>
+      </c>
+      <c r="V48">
+        <v>1014</v>
+      </c>
+      <c r="W48">
+        <v>-37</v>
+      </c>
+      <c r="X48">
+        <v>-229</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-794</v>
+      </c>
+      <c r="AA48">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>605</v>
+      </c>
+      <c r="D49">
+        <v>1895</v>
+      </c>
+      <c r="E49">
+        <v>2030</v>
+      </c>
+      <c r="F49">
+        <v>1895</v>
+      </c>
+      <c r="G49">
+        <v>9357</v>
+      </c>
+      <c r="H49">
+        <v>12462</v>
+      </c>
+      <c r="I49">
+        <v>357</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>4906</v>
+      </c>
+      <c r="O49">
+        <v>5533</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>-993</v>
+      </c>
+      <c r="R49">
+        <v>41274</v>
+      </c>
+      <c r="S49">
+        <v>7500</v>
+      </c>
+      <c r="T49">
+        <v>6929</v>
+      </c>
+      <c r="U49">
+        <v>2052</v>
+      </c>
+      <c r="V49">
+        <v>866</v>
+      </c>
+      <c r="W49">
+        <v>-38</v>
+      </c>
+      <c r="X49">
+        <v>-647</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-441</v>
+      </c>
+      <c r="AA49">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>766</v>
+      </c>
+      <c r="D50">
+        <v>1906</v>
+      </c>
+      <c r="E50">
+        <v>1596</v>
+      </c>
+      <c r="F50">
+        <v>1906</v>
+      </c>
+      <c r="G50">
+        <v>8783</v>
+      </c>
+      <c r="H50">
+        <v>11809</v>
+      </c>
+      <c r="I50">
+        <v>262</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4414</v>
+      </c>
+      <c r="O50">
+        <v>5053</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-68</v>
+      </c>
+      <c r="R50">
+        <v>41364</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>6756</v>
+      </c>
+      <c r="U50">
+        <v>1984</v>
+      </c>
+      <c r="V50">
+        <v>872</v>
+      </c>
+      <c r="W50">
+        <v>-37</v>
+      </c>
+      <c r="X50">
+        <v>-783</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-65</v>
+      </c>
+      <c r="AA50">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>848</v>
+      </c>
+      <c r="D51">
+        <v>2096</v>
+      </c>
+      <c r="E51">
+        <v>1595</v>
+      </c>
+      <c r="F51">
+        <v>2096</v>
+      </c>
+      <c r="G51">
+        <v>8962</v>
+      </c>
+      <c r="H51">
+        <v>12021</v>
+      </c>
+      <c r="I51">
+        <v>259</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>4327</v>
+      </c>
+      <c r="O51">
+        <v>4992</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>364</v>
+      </c>
+      <c r="R51">
+        <v>41455</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7029</v>
+      </c>
+      <c r="U51">
+        <v>2348</v>
+      </c>
+      <c r="V51">
+        <v>742</v>
+      </c>
+      <c r="W51">
+        <v>-73</v>
+      </c>
+      <c r="X51">
+        <v>-638</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>289</v>
+      </c>
+      <c r="AA51">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>879</v>
+      </c>
+      <c r="D52">
+        <v>2218</v>
+      </c>
+      <c r="E52">
+        <v>2285</v>
+      </c>
+      <c r="F52">
+        <v>2218</v>
+      </c>
+      <c r="G52">
+        <v>10559</v>
+      </c>
+      <c r="H52">
+        <v>13730</v>
+      </c>
+      <c r="I52">
+        <v>280</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>5420</v>
+      </c>
+      <c r="O52">
+        <v>6062</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1065</v>
+      </c>
+      <c r="R52">
+        <v>41547</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7668</v>
+      </c>
+      <c r="U52">
+        <v>3413</v>
+      </c>
+      <c r="V52">
+        <v>1322</v>
+      </c>
+      <c r="W52">
+        <v>-72</v>
+      </c>
+      <c r="X52">
+        <v>-416</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>184</v>
+      </c>
+      <c r="AA52">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>623</v>
+      </c>
+      <c r="D53">
+        <v>2126</v>
+      </c>
+      <c r="E53">
+        <v>2304</v>
+      </c>
+      <c r="F53">
+        <v>2126</v>
+      </c>
+      <c r="G53">
+        <v>10950</v>
+      </c>
+      <c r="H53">
+        <v>14242</v>
+      </c>
+      <c r="I53">
+        <v>338</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>6032</v>
+      </c>
+      <c r="O53">
+        <v>6747</v>
+      </c>
+      <c r="P53">
+        <v>35</v>
+      </c>
+      <c r="Q53">
+        <v>186</v>
+      </c>
+      <c r="R53">
+        <v>41639</v>
+      </c>
+      <c r="S53">
+        <v>8200</v>
+      </c>
+      <c r="T53">
+        <v>7495</v>
+      </c>
+      <c r="U53">
+        <v>3599</v>
+      </c>
+      <c r="V53">
+        <v>1199</v>
+      </c>
+      <c r="W53">
+        <v>-73</v>
+      </c>
+      <c r="X53">
+        <v>-792</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-89</v>
+      </c>
+      <c r="AA53">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>870</v>
+      </c>
+      <c r="D54">
+        <v>2172</v>
+      </c>
+      <c r="E54">
+        <v>2460</v>
+      </c>
+      <c r="F54">
+        <v>2172</v>
+      </c>
+      <c r="G54">
+        <v>11342</v>
+      </c>
+      <c r="H54">
+        <v>14802</v>
+      </c>
+      <c r="I54">
+        <v>297</v>
+      </c>
+      <c r="J54">
+        <v>1494</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>5994</v>
+      </c>
+      <c r="O54">
+        <v>8224</v>
+      </c>
+      <c r="P54">
+        <v>1494</v>
+      </c>
+      <c r="Q54">
+        <v>420</v>
+      </c>
+      <c r="R54">
+        <v>41729</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>6578</v>
+      </c>
+      <c r="U54">
+        <v>4019</v>
+      </c>
+      <c r="V54">
+        <v>568</v>
+      </c>
+      <c r="W54">
+        <v>-131</v>
+      </c>
+      <c r="X54">
+        <v>-279</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>147</v>
+      </c>
+      <c r="AA54">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>931</v>
+      </c>
+      <c r="D55">
+        <v>2368</v>
+      </c>
+      <c r="E55">
+        <v>2468</v>
+      </c>
+      <c r="F55">
+        <v>2368</v>
+      </c>
+      <c r="G55">
+        <v>10577</v>
+      </c>
+      <c r="H55">
+        <v>14375</v>
+      </c>
+      <c r="I55">
+        <v>420</v>
+      </c>
+      <c r="J55">
+        <v>1494</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>5790</v>
+      </c>
+      <c r="O55">
+        <v>8061</v>
+      </c>
+      <c r="P55">
+        <v>1494</v>
+      </c>
+      <c r="Q55">
+        <v>-1141</v>
+      </c>
+      <c r="R55">
+        <v>41820</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6314</v>
+      </c>
+      <c r="U55">
+        <v>2878</v>
+      </c>
+      <c r="V55">
+        <v>729</v>
+      </c>
+      <c r="W55">
+        <v>-129</v>
+      </c>
+      <c r="X55">
+        <v>-1306</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-307</v>
+      </c>
+      <c r="AA55">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1015</v>
+      </c>
+      <c r="D56">
+        <v>2490</v>
+      </c>
+      <c r="E56">
+        <v>2239</v>
+      </c>
+      <c r="F56">
+        <v>2490</v>
+      </c>
+      <c r="G56">
+        <v>10956</v>
+      </c>
+      <c r="H56">
+        <v>14659</v>
+      </c>
+      <c r="I56">
+        <v>319</v>
+      </c>
+      <c r="J56">
+        <v>1494</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>5849</v>
+      </c>
+      <c r="O56">
+        <v>8111</v>
+      </c>
+      <c r="P56">
+        <v>1494</v>
+      </c>
+      <c r="Q56">
+        <v>1584</v>
+      </c>
+      <c r="R56">
+        <v>41912</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6548</v>
+      </c>
+      <c r="U56">
+        <v>4462</v>
+      </c>
+      <c r="V56">
+        <v>1385</v>
+      </c>
+      <c r="W56">
+        <v>-128</v>
+      </c>
+      <c r="X56">
+        <v>-510</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>949</v>
+      </c>
+      <c r="AA56">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>801</v>
+      </c>
+      <c r="D57">
+        <v>2411</v>
+      </c>
+      <c r="E57">
+        <v>2126</v>
+      </c>
+      <c r="F57">
+        <v>2411</v>
+      </c>
+      <c r="G57">
+        <v>10997</v>
+      </c>
+      <c r="H57">
+        <v>15329</v>
+      </c>
+      <c r="I57">
+        <v>419</v>
+      </c>
+      <c r="J57">
+        <v>1494</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>6222</v>
+      </c>
+      <c r="O57">
+        <v>8505</v>
+      </c>
+      <c r="P57">
+        <v>1535</v>
+      </c>
+      <c r="Q57">
+        <v>675</v>
+      </c>
+      <c r="R57">
+        <v>42004</v>
+      </c>
+      <c r="S57">
+        <v>10300</v>
+      </c>
+      <c r="T57">
+        <v>6824</v>
+      </c>
+      <c r="U57">
+        <v>5137</v>
+      </c>
+      <c r="V57">
+        <v>725</v>
+      </c>
+      <c r="W57">
+        <v>-127</v>
+      </c>
+      <c r="X57">
+        <v>-244</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>661</v>
+      </c>
+      <c r="AA57">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>1020</v>
+      </c>
+      <c r="D58">
+        <v>2230</v>
+      </c>
+      <c r="E58">
+        <v>2084</v>
+      </c>
+      <c r="F58">
+        <v>2230</v>
+      </c>
+      <c r="G58">
+        <v>10348</v>
+      </c>
+      <c r="H58">
+        <v>14633</v>
+      </c>
+      <c r="I58">
+        <v>406</v>
+      </c>
+      <c r="J58">
+        <v>1495</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>5937</v>
+      </c>
+      <c r="O58">
+        <v>8299</v>
+      </c>
+      <c r="P58">
+        <v>1495</v>
+      </c>
+      <c r="Q58">
+        <v>-930</v>
+      </c>
+      <c r="R58">
+        <v>42094</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>6334</v>
+      </c>
+      <c r="U58">
+        <v>4207</v>
+      </c>
+      <c r="V58">
+        <v>911</v>
+      </c>
+      <c r="W58">
+        <v>-184</v>
+      </c>
+      <c r="X58">
+        <v>-1100</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-441</v>
+      </c>
+      <c r="AA58">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>921</v>
+      </c>
+      <c r="D59">
+        <v>2390</v>
+      </c>
+      <c r="E59">
+        <v>2369</v>
+      </c>
+      <c r="F59">
+        <v>2390</v>
+      </c>
+      <c r="G59">
+        <v>10217</v>
+      </c>
+      <c r="H59">
+        <v>15272</v>
+      </c>
+      <c r="I59">
+        <v>481</v>
+      </c>
+      <c r="J59">
+        <v>1495</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>6476</v>
+      </c>
+      <c r="O59">
+        <v>8836</v>
+      </c>
+      <c r="P59">
+        <v>1495</v>
+      </c>
+      <c r="Q59">
+        <v>-846</v>
+      </c>
+      <c r="R59">
+        <v>42185</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6436</v>
+      </c>
+      <c r="U59">
+        <v>3361</v>
+      </c>
+      <c r="V59">
+        <v>821</v>
+      </c>
+      <c r="W59">
+        <v>-183</v>
+      </c>
+      <c r="X59">
+        <v>-1016</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-54</v>
+      </c>
+      <c r="AA59">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>977</v>
+      </c>
+      <c r="D60">
+        <v>2530</v>
+      </c>
+      <c r="E60">
+        <v>1952</v>
+      </c>
+      <c r="F60">
+        <v>2530</v>
+      </c>
+      <c r="G60">
+        <v>9625</v>
+      </c>
+      <c r="H60">
+        <v>14634</v>
+      </c>
+      <c r="I60">
+        <v>381</v>
+      </c>
+      <c r="J60">
+        <v>1495</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>5943</v>
+      </c>
+      <c r="O60">
+        <v>8336</v>
+      </c>
+      <c r="P60">
+        <v>1495</v>
+      </c>
+      <c r="Q60">
+        <v>516</v>
+      </c>
+      <c r="R60">
+        <v>42277</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>6298</v>
+      </c>
+      <c r="U60">
+        <v>3877</v>
+      </c>
+      <c r="V60">
+        <v>1272</v>
+      </c>
+      <c r="W60">
+        <v>-181</v>
+      </c>
+      <c r="X60">
+        <v>-1100</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>483</v>
+      </c>
+      <c r="AA60">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>890</v>
+      </c>
+      <c r="D61">
+        <v>2517</v>
+      </c>
+      <c r="E61">
+        <v>2124</v>
+      </c>
+      <c r="F61">
+        <v>2517</v>
+      </c>
+      <c r="G61">
+        <v>10984</v>
+      </c>
+      <c r="H61">
+        <v>16250</v>
+      </c>
+      <c r="I61">
+        <v>472</v>
+      </c>
+      <c r="J61">
+        <v>3268</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>6269</v>
+      </c>
+      <c r="O61">
+        <v>10188</v>
+      </c>
+      <c r="P61">
+        <v>3268</v>
+      </c>
+      <c r="Q61">
+        <v>1870</v>
+      </c>
+      <c r="R61">
+        <v>42369</v>
+      </c>
+      <c r="S61">
+        <v>11300</v>
+      </c>
+      <c r="T61">
+        <v>6062</v>
+      </c>
+      <c r="U61">
+        <v>5747</v>
+      </c>
+      <c r="V61">
+        <v>1039</v>
+      </c>
+      <c r="W61">
+        <v>-179</v>
+      </c>
+      <c r="X61">
+        <v>758</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>222</v>
+      </c>
+      <c r="AA61">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>959</v>
+      </c>
+      <c r="D62">
+        <v>2446</v>
+      </c>
+      <c r="E62">
+        <v>2188</v>
+      </c>
+      <c r="F62">
+        <v>2446</v>
+      </c>
+      <c r="G62">
+        <v>10606</v>
+      </c>
+      <c r="H62">
+        <v>15905</v>
+      </c>
+      <c r="I62">
+        <v>409</v>
+      </c>
+      <c r="J62">
+        <v>3333</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>6440</v>
+      </c>
+      <c r="O62">
+        <v>10394</v>
+      </c>
+      <c r="P62">
+        <v>3333</v>
+      </c>
+      <c r="Q62">
+        <v>-853</v>
+      </c>
+      <c r="R62">
+        <v>42460</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>5511</v>
+      </c>
+      <c r="U62">
+        <v>4894</v>
+      </c>
+      <c r="V62">
+        <v>1058</v>
+      </c>
+      <c r="W62">
+        <v>-212</v>
+      </c>
+      <c r="X62">
+        <v>-1595</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-302</v>
+      </c>
+      <c r="AA62">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>983</v>
+      </c>
+      <c r="D63">
+        <v>2694</v>
+      </c>
+      <c r="E63">
+        <v>2192</v>
+      </c>
+      <c r="F63">
+        <v>2694</v>
+      </c>
+      <c r="G63">
+        <v>10998</v>
+      </c>
+      <c r="H63">
+        <v>16282</v>
+      </c>
+      <c r="I63">
+        <v>452</v>
+      </c>
+      <c r="J63">
+        <v>3306</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>6462</v>
+      </c>
+      <c r="O63">
+        <v>10413</v>
+      </c>
+      <c r="P63">
+        <v>3306</v>
+      </c>
+      <c r="Q63">
+        <v>282</v>
+      </c>
+      <c r="R63">
+        <v>42551</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5869</v>
+      </c>
+      <c r="U63">
+        <v>5176</v>
+      </c>
+      <c r="V63">
+        <v>1061</v>
+      </c>
+      <c r="W63">
+        <v>-209</v>
+      </c>
+      <c r="X63">
+        <v>-651</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-10</v>
+      </c>
+      <c r="AA63">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>1184</v>
+      </c>
+      <c r="D64">
+        <v>2880</v>
+      </c>
+      <c r="E64">
+        <v>2422</v>
+      </c>
+      <c r="F64">
+        <v>2880</v>
+      </c>
+      <c r="G64">
+        <v>11776</v>
+      </c>
+      <c r="H64">
+        <v>17323</v>
+      </c>
+      <c r="I64">
+        <v>437</v>
+      </c>
+      <c r="J64">
+        <v>3326</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>7121</v>
+      </c>
+      <c r="O64">
+        <v>11074</v>
+      </c>
+      <c r="P64">
+        <v>3326</v>
+      </c>
+      <c r="Q64">
+        <v>29</v>
+      </c>
+      <c r="R64">
+        <v>42643</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>6249</v>
+      </c>
+      <c r="U64">
+        <v>5205</v>
+      </c>
+      <c r="V64">
+        <v>1424</v>
+      </c>
+      <c r="W64">
+        <v>-209</v>
+      </c>
+      <c r="X64">
+        <v>-773</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-531</v>
+      </c>
+      <c r="AA64">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>933</v>
+      </c>
+      <c r="D65">
+        <v>2756</v>
+      </c>
+      <c r="E65">
+        <v>2480</v>
+      </c>
+      <c r="F65">
+        <v>2756</v>
+      </c>
+      <c r="G65">
+        <v>13228</v>
+      </c>
+      <c r="H65">
+        <v>18675</v>
+      </c>
+      <c r="I65">
+        <v>609</v>
+      </c>
+      <c r="J65">
+        <v>5180</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>7206</v>
+      </c>
+      <c r="O65">
+        <v>12991</v>
+      </c>
+      <c r="P65">
+        <v>5180</v>
+      </c>
+      <c r="Q65">
+        <v>1516</v>
+      </c>
+      <c r="R65">
+        <v>42735</v>
+      </c>
+      <c r="S65">
+        <v>11900</v>
+      </c>
+      <c r="T65">
+        <v>5684</v>
+      </c>
+      <c r="U65">
+        <v>6721</v>
+      </c>
+      <c r="V65">
+        <v>992</v>
+      </c>
+      <c r="W65">
+        <v>-207</v>
+      </c>
+      <c r="X65">
+        <v>675</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>60</v>
+      </c>
+      <c r="AA65">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>1081</v>
+      </c>
+      <c r="D66">
+        <v>2734</v>
+      </c>
+      <c r="E66">
+        <v>2625</v>
+      </c>
+      <c r="F66">
+        <v>2734</v>
+      </c>
+      <c r="G66">
+        <v>12885</v>
+      </c>
+      <c r="H66">
+        <v>18570</v>
+      </c>
+      <c r="I66">
+        <v>680</v>
+      </c>
+      <c r="J66">
+        <v>5216</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>7095</v>
+      </c>
+      <c r="O66">
+        <v>12932</v>
+      </c>
+      <c r="P66">
+        <v>5216</v>
+      </c>
+      <c r="Q66">
+        <v>-598</v>
+      </c>
+      <c r="R66">
+        <v>42825</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>5638</v>
+      </c>
+      <c r="U66">
+        <v>6006</v>
+      </c>
+      <c r="V66">
+        <v>727</v>
+      </c>
+      <c r="W66">
+        <v>-238</v>
+      </c>
+      <c r="X66">
+        <v>-1237</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-22</v>
+      </c>
+      <c r="AA66">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>1177</v>
+      </c>
+      <c r="D67">
+        <v>3053</v>
+      </c>
+      <c r="E67">
+        <v>2975</v>
+      </c>
+      <c r="F67">
+        <v>3053</v>
+      </c>
+      <c r="G67">
+        <v>12542</v>
+      </c>
+      <c r="H67">
+        <v>19839</v>
+      </c>
+      <c r="I67">
+        <v>654</v>
+      </c>
+      <c r="J67">
+        <v>5326</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>7583</v>
+      </c>
+      <c r="O67">
+        <v>13891</v>
+      </c>
+      <c r="P67">
+        <v>5326</v>
+      </c>
+      <c r="Q67">
+        <v>-924</v>
+      </c>
+      <c r="R67">
+        <v>42916</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5948</v>
+      </c>
+      <c r="U67">
+        <v>5177</v>
+      </c>
+      <c r="V67">
+        <v>1325</v>
+      </c>
+      <c r="W67">
+        <v>-236</v>
+      </c>
+      <c r="X67">
+        <v>-1215</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-121</v>
+      </c>
+      <c r="AA67">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>1430</v>
+      </c>
+      <c r="D68">
+        <v>3398</v>
+      </c>
+      <c r="E68">
+        <v>3053</v>
+      </c>
+      <c r="F68">
+        <v>3398</v>
+      </c>
+      <c r="G68">
+        <v>13231</v>
+      </c>
+      <c r="H68">
+        <v>20914</v>
+      </c>
+      <c r="I68">
+        <v>722</v>
+      </c>
+      <c r="J68">
+        <v>5393</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>7984</v>
+      </c>
+      <c r="O68">
+        <v>14376</v>
+      </c>
+      <c r="P68">
+        <v>5393</v>
+      </c>
+      <c r="Q68">
+        <v>440</v>
+      </c>
+      <c r="R68">
+        <v>43008</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6538</v>
+      </c>
+      <c r="U68">
+        <v>5559</v>
+      </c>
+      <c r="V68">
+        <v>1789</v>
+      </c>
+      <c r="W68">
+        <v>-235</v>
+      </c>
+      <c r="X68">
+        <v>-1042</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-45</v>
+      </c>
+      <c r="AA68">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>227</v>
+      </c>
+      <c r="D69">
+        <v>3312</v>
+      </c>
+      <c r="E69">
+        <v>3338</v>
+      </c>
+      <c r="F69">
+        <v>3312</v>
+      </c>
+      <c r="G69">
+        <v>13797</v>
+      </c>
+      <c r="H69">
+        <v>21329</v>
+      </c>
+      <c r="I69">
+        <v>933</v>
+      </c>
+      <c r="J69">
+        <v>5424</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>8793</v>
+      </c>
+      <c r="O69">
+        <v>15761</v>
+      </c>
+      <c r="P69">
+        <v>5424</v>
+      </c>
+      <c r="Q69">
+        <v>401</v>
+      </c>
+      <c r="R69">
+        <v>43100</v>
+      </c>
+      <c r="S69">
+        <v>13400</v>
+      </c>
+      <c r="T69">
+        <v>5568</v>
+      </c>
+      <c r="U69">
+        <v>5933</v>
+      </c>
+      <c r="V69">
+        <v>1823</v>
+      </c>
+      <c r="W69">
+        <v>-233</v>
+      </c>
+      <c r="X69">
+        <v>-1270</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>6</v>
+      </c>
+      <c r="AA69">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1492</v>
+      </c>
+      <c r="D70">
+        <v>3580</v>
+      </c>
+      <c r="E70">
+        <v>3644</v>
+      </c>
+      <c r="F70">
+        <v>3580</v>
+      </c>
+      <c r="G70">
+        <v>14707</v>
+      </c>
+      <c r="H70">
+        <v>22944</v>
+      </c>
+      <c r="I70">
+        <v>370</v>
+      </c>
+      <c r="J70">
+        <v>6469</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>8948</v>
+      </c>
+      <c r="O70">
+        <v>17142</v>
+      </c>
+      <c r="P70">
+        <v>6469</v>
+      </c>
+      <c r="Q70">
+        <v>832</v>
+      </c>
+      <c r="R70">
+        <v>43190</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>5802</v>
+      </c>
+      <c r="U70">
+        <v>6890</v>
+      </c>
+      <c r="V70">
+        <v>1035</v>
+      </c>
+      <c r="W70">
+        <v>-263</v>
+      </c>
+      <c r="X70">
+        <v>-665</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>505</v>
+      </c>
+      <c r="AA70">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1569</v>
+      </c>
+      <c r="D71">
+        <v>3665</v>
+      </c>
+      <c r="E71">
+        <v>3657</v>
+      </c>
+      <c r="F71">
+        <v>3665</v>
+      </c>
+      <c r="G71">
+        <v>14305</v>
+      </c>
+      <c r="H71">
+        <v>22471</v>
+      </c>
+      <c r="I71">
+        <v>345</v>
+      </c>
+      <c r="J71">
+        <v>5858</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>9455</v>
+      </c>
+      <c r="O71">
+        <v>17121</v>
+      </c>
+      <c r="P71">
+        <v>5858</v>
+      </c>
+      <c r="Q71">
+        <v>-656</v>
+      </c>
+      <c r="R71">
+        <v>43281</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5350</v>
+      </c>
+      <c r="U71">
+        <v>6210</v>
+      </c>
+      <c r="V71">
+        <v>1489</v>
+      </c>
+      <c r="W71">
+        <v>-262</v>
+      </c>
+      <c r="X71">
+        <v>-1751</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-244</v>
+      </c>
+      <c r="AA71">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1899</v>
+      </c>
+      <c r="D72">
+        <v>3898</v>
+      </c>
+      <c r="E72">
+        <v>3612</v>
+      </c>
+      <c r="F72">
+        <v>3898</v>
+      </c>
+      <c r="G72">
+        <v>15064</v>
+      </c>
+      <c r="H72">
+        <v>23340</v>
+      </c>
+      <c r="I72">
+        <v>382</v>
+      </c>
+      <c r="J72">
+        <v>5858</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>9709</v>
+      </c>
+      <c r="O72">
+        <v>17473</v>
+      </c>
+      <c r="P72">
+        <v>6358</v>
+      </c>
+      <c r="Q72">
+        <v>710</v>
+      </c>
+      <c r="R72">
+        <v>43373</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5867</v>
+      </c>
+      <c r="U72">
+        <v>6871</v>
+      </c>
+      <c r="V72">
+        <v>2367</v>
+      </c>
+      <c r="W72">
+        <v>-260</v>
+      </c>
+      <c r="X72">
+        <v>-1417</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-102</v>
+      </c>
+      <c r="AA72">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>899</v>
+      </c>
+      <c r="D73">
+        <v>3807</v>
+      </c>
+      <c r="E73">
+        <v>4728</v>
+      </c>
+      <c r="F73">
+        <v>3807</v>
+      </c>
+      <c r="G73">
+        <v>16171</v>
+      </c>
+      <c r="H73">
+        <v>24860</v>
+      </c>
+      <c r="I73">
+        <v>537</v>
+      </c>
+      <c r="J73">
+        <v>5834</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>11593</v>
+      </c>
+      <c r="O73">
+        <v>19371</v>
+      </c>
+      <c r="P73">
+        <v>6334</v>
+      </c>
+      <c r="Q73">
+        <v>-141</v>
+      </c>
+      <c r="R73">
+        <v>43465</v>
+      </c>
+      <c r="S73">
+        <v>14800</v>
+      </c>
+      <c r="T73">
+        <v>5489</v>
+      </c>
+      <c r="U73">
+        <v>6682</v>
+      </c>
+      <c r="V73">
+        <v>1332</v>
+      </c>
+      <c r="W73">
+        <v>-259</v>
+      </c>
+      <c r="X73">
+        <v>-1133</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-147</v>
+      </c>
+      <c r="AA73">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1862</v>
+      </c>
+      <c r="D74">
+        <v>3889</v>
+      </c>
+      <c r="E74">
+        <v>4003</v>
+      </c>
+      <c r="F74">
+        <v>3889</v>
+      </c>
+      <c r="G74">
+        <v>14396</v>
+      </c>
+      <c r="H74">
+        <v>23520</v>
+      </c>
+      <c r="I74">
+        <v>508</v>
+      </c>
+      <c r="J74">
+        <v>5799</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>10246</v>
+      </c>
+      <c r="O74">
+        <v>18257</v>
+      </c>
+      <c r="P74">
+        <v>6705</v>
+      </c>
+      <c r="Q74">
+        <v>-752</v>
+      </c>
+      <c r="R74">
+        <v>43555</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>5263</v>
+      </c>
+      <c r="U74">
+        <v>5857</v>
+      </c>
+      <c r="V74">
+        <v>1312</v>
+      </c>
+      <c r="W74">
+        <v>-340</v>
+      </c>
+      <c r="X74">
+        <v>-2223</v>
+      </c>
+      <c r="Y74">
+        <v>327</v>
+      </c>
+      <c r="Z74">
+        <v>366</v>
+      </c>
+      <c r="AA74">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>2048</v>
+      </c>
+      <c r="D75">
+        <v>4113</v>
+      </c>
+      <c r="E75">
+        <v>4156</v>
+      </c>
+      <c r="F75">
+        <v>4113</v>
+      </c>
+      <c r="G75">
+        <v>14165</v>
+      </c>
+      <c r="H75">
+        <v>24731</v>
+      </c>
+      <c r="I75">
+        <v>432</v>
+      </c>
+      <c r="J75">
+        <v>7806</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>9497</v>
+      </c>
+      <c r="O75">
+        <v>19622</v>
+      </c>
+      <c r="P75">
+        <v>8224</v>
+      </c>
+      <c r="Q75">
+        <v>-140</v>
+      </c>
+      <c r="R75">
+        <v>43646</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5109</v>
+      </c>
+      <c r="U75">
+        <v>5691</v>
+      </c>
+      <c r="V75">
+        <v>1536</v>
+      </c>
+      <c r="W75">
+        <v>-337</v>
+      </c>
+      <c r="X75">
+        <v>-937</v>
+      </c>
+      <c r="Y75">
+        <v>336</v>
+      </c>
+      <c r="Z75">
+        <v>129</v>
+      </c>
+      <c r="AA75">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>2108</v>
+      </c>
+      <c r="D76">
+        <v>4467</v>
+      </c>
+      <c r="E76">
+        <v>5223</v>
+      </c>
+      <c r="F76">
+        <v>4467</v>
+      </c>
+      <c r="G76">
+        <v>14847</v>
+      </c>
+      <c r="H76">
+        <v>25981</v>
+      </c>
+      <c r="I76">
+        <v>505</v>
+      </c>
+      <c r="J76">
+        <v>7735</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>10714</v>
+      </c>
+      <c r="O76">
+        <v>20932</v>
+      </c>
+      <c r="P76">
+        <v>8219</v>
+      </c>
+      <c r="Q76">
+        <v>-473</v>
+      </c>
+      <c r="R76">
+        <v>43738</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5049</v>
+      </c>
+      <c r="U76">
+        <v>5101</v>
+      </c>
+      <c r="V76">
+        <v>2355</v>
+      </c>
+      <c r="W76">
+        <v>-335</v>
+      </c>
+      <c r="X76">
+        <v>-2125</v>
+      </c>
+      <c r="Y76">
+        <v>386</v>
+      </c>
+      <c r="Z76">
+        <v>40</v>
+      </c>
+      <c r="AA76">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>2100</v>
+      </c>
+      <c r="D77">
+        <v>4414</v>
+      </c>
+      <c r="E77">
+        <v>5509</v>
+      </c>
+      <c r="F77">
+        <v>4414</v>
+      </c>
+      <c r="G77">
+        <v>16902</v>
+      </c>
+      <c r="H77">
+        <v>29236</v>
+      </c>
+      <c r="I77">
+        <v>489</v>
+      </c>
+      <c r="J77">
+        <v>8527</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>11904</v>
+      </c>
+      <c r="O77">
+        <v>23245</v>
+      </c>
+      <c r="P77">
+        <v>9289</v>
+      </c>
+      <c r="Q77">
+        <v>1997</v>
+      </c>
+      <c r="R77">
+        <v>43830</v>
+      </c>
+      <c r="S77">
+        <v>18600</v>
+      </c>
+      <c r="T77">
+        <v>5991</v>
+      </c>
+      <c r="U77">
+        <v>6988</v>
+      </c>
+      <c r="V77">
+        <v>2980</v>
+      </c>
+      <c r="W77">
+        <v>-333</v>
+      </c>
+      <c r="X77">
+        <v>-582</v>
+      </c>
+      <c r="Y77">
+        <v>656</v>
+      </c>
+      <c r="Z77">
+        <v>-3</v>
+      </c>
+      <c r="AA77">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1693</v>
+      </c>
+      <c r="D78">
+        <v>4009</v>
+      </c>
+      <c r="E78">
+        <v>3605</v>
+      </c>
+      <c r="F78">
+        <v>4009</v>
+      </c>
+      <c r="G78">
+        <v>18123</v>
+      </c>
+      <c r="H78">
+        <v>30648</v>
+      </c>
+      <c r="I78">
+        <v>371</v>
+      </c>
+      <c r="J78">
+        <v>12466</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>9712</v>
+      </c>
+      <c r="O78">
+        <v>25150</v>
+      </c>
+      <c r="P78">
+        <v>12466</v>
+      </c>
+      <c r="Q78">
+        <v>3364</v>
+      </c>
+      <c r="R78">
+        <v>43921</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>5498</v>
+      </c>
+      <c r="U78">
+        <v>10207</v>
+      </c>
+      <c r="V78">
+        <v>1859</v>
+      </c>
+      <c r="W78">
+        <v>-403</v>
+      </c>
+      <c r="X78">
+        <v>2100</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>54</v>
+      </c>
+      <c r="AA78">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>1420</v>
+      </c>
+      <c r="D79">
+        <v>3335</v>
+      </c>
+      <c r="E79">
+        <v>3929</v>
+      </c>
+      <c r="F79">
+        <v>3335</v>
+      </c>
+      <c r="G79">
+        <v>19381</v>
+      </c>
+      <c r="H79">
+        <v>32127</v>
+      </c>
+      <c r="I79">
+        <v>369</v>
+      </c>
+      <c r="J79">
+        <v>12498</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>9923</v>
+      </c>
+      <c r="O79">
+        <v>25579</v>
+      </c>
+      <c r="P79">
+        <v>12498</v>
+      </c>
+      <c r="Q79">
+        <v>969</v>
+      </c>
+      <c r="R79">
+        <v>44012</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6548</v>
+      </c>
+      <c r="U79">
+        <v>11137</v>
+      </c>
+      <c r="V79">
+        <v>1458</v>
+      </c>
+      <c r="W79">
+        <v>-401</v>
+      </c>
+      <c r="X79">
+        <v>-409</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>76</v>
+      </c>
+      <c r="AA79">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>1513</v>
+      </c>
+      <c r="D80">
+        <v>3837</v>
+      </c>
+      <c r="E80">
+        <v>3732</v>
+      </c>
+      <c r="F80">
+        <v>3837</v>
+      </c>
+      <c r="G80">
+        <v>18469</v>
+      </c>
+      <c r="H80">
+        <v>31594</v>
+      </c>
+      <c r="I80">
+        <v>341</v>
+      </c>
+      <c r="J80">
+        <v>12574</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>9958</v>
+      </c>
+      <c r="O80">
+        <v>25713</v>
+      </c>
+      <c r="P80">
+        <v>12574</v>
+      </c>
+      <c r="Q80">
+        <v>-898</v>
+      </c>
+      <c r="R80">
+        <v>44104</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5881</v>
+      </c>
+      <c r="U80">
+        <v>10225</v>
+      </c>
+      <c r="V80">
+        <v>1654</v>
+      </c>
+      <c r="W80">
+        <v>-402</v>
+      </c>
+      <c r="X80">
+        <v>-2468</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-40</v>
+      </c>
+      <c r="AA80">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>1785</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>4120</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>4352</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>4120</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>19113</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>33584</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>527</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>12023</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>11847</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>27067</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>13523</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>15</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S81">
         <v>21000</v>
       </c>
-      <c r="T42">
+      <c r="T81">
         <v>6517</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>10113</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>2253</v>
       </c>
-      <c r="W42">
+      <c r="W81">
         <v>-399</v>
       </c>
-      <c r="X42">
+      <c r="X81">
         <v>-1375</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>726</v>
       </c>
-      <c r="Z42">
+      <c r="Z81">
         <v>-100</v>
       </c>
-      <c r="AA42">
+      <c r="AA81">
         <v>1785</v>
       </c>
     </row>
